--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>394728739813</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +40,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -43,10 +52,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>GEOL 1011K</t>
-  </si>
-  <si>
-    <t>POLS 1101</t>
+    <t>ARTH 2125</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -58,6 +64,24 @@
     <t>CPSC 3165</t>
   </si>
   <si>
+    <t>KINS 3258</t>
+  </si>
+  <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
+    <t>CYBR 4125</t>
+  </si>
+  <si>
     <t>CPSC 4135</t>
   </si>
   <si>
@@ -70,28 +94,16 @@
     <t>CPSC 4157</t>
   </si>
   <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CPSC 4555</t>
+    <t>CYBR 4416</t>
   </si>
   <si>
     <t>CPSC 4698</t>
-  </si>
-  <si>
-    <t>CPSC 4899</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -437,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,9 +460,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -460,250 +480,246 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D4:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <f>SUM(D6:D12)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <f>SUM(F8:F14)</f>
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B13:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D13:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F13:F19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B21:B27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <f>SUM(D23:D29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <f>SUM(F25:F31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="F43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <f>SUM(B38:B44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <f>SUM(D40:D46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <f>SUM(F42:F48)</f>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
-  <si>
-    <t>Philip</t>
-  </si>
-  <si>
-    <t>394728739813</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -40,6 +34,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>PSYC 1101</t>
+  </si>
+  <si>
     <t>POLS 1101</t>
   </si>
   <si>
@@ -52,7 +49,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>ARTH 2125</t>
+    <t>PSYC 1105</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -64,10 +61,16 @@
     <t>CPSC 3165</t>
   </si>
   <si>
-    <t>KINS 3258</t>
-  </si>
-  <si>
-    <t>CPSC 3415</t>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
+    <t>CPSC 4157</t>
   </si>
   <si>
     <t>Fall 2024</t>
@@ -79,31 +82,10 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>CYBR 4125</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4155</t>
-  </si>
-  <si>
-    <t>CPSC 4157</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
     <t>CPSC 4176</t>
-  </si>
-  <si>
-    <t>CYBR 4416</t>
-  </si>
-  <si>
-    <t>CPSC 4698</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -449,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,17 +442,9 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -480,27 +454,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -511,16 +485,10 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -531,58 +499,74 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -591,89 +575,55 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -682,41 +632,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Summer 2022</t>
   </si>
   <si>
-    <t>PSYC 1101</t>
-  </si>
-  <si>
     <t>POLS 1101</t>
   </si>
   <si>
@@ -61,6 +58,15 @@
     <t>CPSC 3165</t>
   </si>
   <si>
+    <t>GEOL 3225</t>
+  </si>
+  <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
+    <t>CYBR 4125</t>
+  </si>
+  <si>
     <t>CPSC 4135</t>
   </si>
   <si>
@@ -70,16 +76,16 @@
     <t>CPSC 4155</t>
   </si>
   <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
     <t>CPSC 4157</t>
-  </si>
-  <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
   </si>
   <si>
     <t>CPSC 4175</t>
@@ -488,13 +494,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -505,10 +511,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -522,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -536,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -544,9 +550,17 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
@@ -575,19 +589,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -595,15 +609,23 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
     </row>
@@ -632,19 +654,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>PSYC 1105</t>
+    <t>GEOL 1121</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -58,10 +58,7 @@
     <t>CPSC 3165</t>
   </si>
   <si>
-    <t>GEOL 3225</t>
-  </si>
-  <si>
-    <t>CPSC 3415</t>
+    <t>CPSC 4000</t>
   </si>
   <si>
     <t>CYBR 4125</t>
@@ -70,6 +67,9 @@
     <t>CPSC 4135</t>
   </si>
   <si>
+    <t>CYBR 4145</t>
+  </si>
+  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>CPSC 4176</t>
-  </si>
-  <si>
-    <t>CPSC 4000</t>
   </si>
 </sst>
 </file>
@@ -486,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -497,7 +494,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -550,17 +547,9 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 4.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+  <si>
+    <t>dadaw</t>
+  </si>
+  <si>
+    <t>32423</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +40,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>PSYC 1101</t>
+  </si>
+  <si>
     <t>POLS 1101</t>
   </si>
   <si>
@@ -46,7 +55,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>GEOL 1121</t>
+    <t>PSYC 1105</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -61,21 +70,18 @@
     <t>CPSC 4000</t>
   </si>
   <si>
-    <t>CYBR 4125</t>
-  </si>
-  <si>
     <t>CPSC 4135</t>
   </si>
   <si>
-    <t>CYBR 4145</t>
-  </si>
-  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
     <t>CPSC 4155</t>
   </si>
   <si>
+    <t>CPSC 4157</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -85,13 +91,19 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>CPSC 4157</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
     <t>CPSC 4176</t>
+  </si>
+  <si>
+    <t>CPSC 4205</t>
+  </si>
+  <si>
+    <t>CYBR 4416</t>
+  </si>
+  <si>
+    <t>CPSC 4555</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,9 +457,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -457,33 +477,33 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -491,13 +511,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -505,13 +525,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -519,13 +539,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -533,13 +553,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -547,29 +567,37 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -578,33 +606,33 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -612,29 +640,37 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -643,41 +679,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
